--- a/TestCase_Practice.xlsx
+++ b/TestCase_Practice.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="11740" windowHeight="4230"/>
   </bookViews>
   <sheets>
     <sheet name="Registration_Testcases" sheetId="1" r:id="rId1"/>
-    <sheet name="TestScenarios" sheetId="2" r:id="rId2"/>
+    <sheet name="GUI_TestCases" sheetId="3" r:id="rId2"/>
+    <sheet name="TestScenarios" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="128">
   <si>
     <t>UseCaseName</t>
   </si>
@@ -49,9 +50,6 @@
     <t>PreCondition</t>
   </si>
   <si>
-    <t>StepNumber</t>
-  </si>
-  <si>
     <t>Step Description</t>
   </si>
   <si>
@@ -107,13 +105,344 @@
   </si>
   <si>
     <t>Reg-Ts006</t>
+  </si>
+  <si>
+    <t>Tc001_UR_GUI</t>
+  </si>
+  <si>
+    <t>Checking GUI of Homepage</t>
+  </si>
+  <si>
+    <t>StepNo</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Step1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Browser and enter url </t>
+  </si>
+  <si>
+    <t>http://192.168.1.100/reg</t>
+  </si>
+  <si>
+    <t>User should land on homepage</t>
+  </si>
+  <si>
+    <t>Step2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify GUI of HomePage
+1. Verify appropriate font size available
+2. Verify appropriate font colors displayed
+3. Verify page alignment
+4. Verify Color and Background color of page
+</t>
+  </si>
+  <si>
+    <t>Should align properly and contains required font ,font color, color  and background color</t>
+  </si>
+  <si>
+    <t>Tc002_UR_Signup</t>
+  </si>
+  <si>
+    <t>Checking Signup link functionality</t>
+  </si>
+  <si>
+    <t>Make Sure required browser installed</t>
+  </si>
+  <si>
+    <t>user enter valid url at selected browser</t>
+  </si>
+  <si>
+    <t>Homepage displayed along with signup link</t>
+  </si>
+  <si>
+    <t>click on Sigup up now link</t>
+  </si>
+  <si>
+    <t>Should aceept and display User Registration  form along with expected entitites 
+[FirstName,LastName,Email,Password,Retype Password,DOB,Gender]</t>
+  </si>
+  <si>
+    <t>Tc003_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verifying user registraiton  GUI</t>
+  </si>
+  <si>
+    <t>Make sure user is navigated to Homepage and Clicked Singup link</t>
+  </si>
+  <si>
+    <t>verify GUI of Registration Page
+1. Verify appropriate font size available
+2. Verify appropriate font colors displayed
+3. Verify form aligned at middle of the page
+4. Verify Color and Background color of page
+5. Verify All labels Displayed Near to Controls</t>
+  </si>
+  <si>
+    <t>Registration form should display with expected colors,fonts and alignments</t>
+  </si>
+  <si>
+    <t>Tc004_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verifying firstname Textbox Entry with valid data</t>
+  </si>
+  <si>
+    <t>http://outlook.com</t>
+  </si>
+  <si>
+    <t>Step3</t>
+  </si>
+  <si>
+    <t>Verifying firstname with valid range min4 with alphabet characters</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Should accept min characters</t>
+  </si>
+  <si>
+    <t>Step4</t>
+  </si>
+  <si>
+    <t>Verifying firstname with valid range max40
+with alphabet characters</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrestuvwxyzabcdefghijklmn</t>
+  </si>
+  <si>
+    <t>Should accept max characters</t>
+  </si>
+  <si>
+    <t>Step5</t>
+  </si>
+  <si>
+    <t>Verifying Firstname with min 5 characters using alphabets</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>Should accept min+1 characters</t>
+  </si>
+  <si>
+    <t>Step6</t>
+  </si>
+  <si>
+    <t>Verifying firstname with valid charecters and fill rest of data and click on Create Account button</t>
+  </si>
+  <si>
+    <t>System should display Status message "Your account has been created"</t>
+  </si>
+  <si>
+    <t>Tc005_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verifying firstname textbox entry with invalid characters</t>
+  </si>
+  <si>
+    <t>Tc002_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verify Entry with 3 characters with alphabets</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Should not Accept and Display error message "First Name allow only 4 to 40 characters range"</t>
+  </si>
+  <si>
+    <t>Verify Entry with  41 characters using alphabets</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrestuvwxyzabcdefghijklmnopqrst</t>
+  </si>
+  <si>
+    <t>Verify Entry with numerics</t>
+  </si>
+  <si>
+    <t>Should not accept and display error"Field accept only alphabet characters"</t>
+  </si>
+  <si>
+    <t>Verify Entry with special characters</t>
+  </si>
+  <si>
+    <t>$$^^%$</t>
+  </si>
+  <si>
+    <t>Verify entry firstname  along with spaces</t>
+  </si>
+  <si>
+    <t>sunil Reddy</t>
+  </si>
+  <si>
+    <t>Should not accept and display error message "Spaces not allowed"</t>
+  </si>
+  <si>
+    <t>Verify entry firstname with alpha numeric/ Special charcters combination</t>
+  </si>
+  <si>
+    <t>Sunil123</t>
+  </si>
+  <si>
+    <t>Should not allow to Numeric characters to type</t>
+  </si>
+  <si>
+    <t>Step7</t>
+  </si>
+  <si>
+    <t>Verify firstname  entry by copying more 
+that 40 Characters</t>
+  </si>
+  <si>
+    <t>Should not allow only display 40 characters in Entry field</t>
+  </si>
+  <si>
+    <t>Tc006_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verifying firstname textbox entry with blank data</t>
+  </si>
+  <si>
+    <t>Leave firstname field as empty and try to create account</t>
+  </si>
+  <si>
+    <t>should not accept and display message "This fields is mandatory"</t>
+  </si>
+  <si>
+    <t>Tc007_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verifying Lastname Textbox Entry with valid data</t>
+  </si>
+  <si>
+    <t>Verifying Lastname with valid range min4 with alphabet characters</t>
+  </si>
+  <si>
+    <t>Verifying Lastname with valid range max40
+with alphabet characters</t>
+  </si>
+  <si>
+    <t>Verifying Lastname with min 5 characters using alphabets</t>
+  </si>
+  <si>
+    <t>Verifying Lastname with valid charecters and fill rest of data and click on Create Account button</t>
+  </si>
+  <si>
+    <t>Tc008_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verifying Lastname textbox entry with invalid characters</t>
+  </si>
+  <si>
+    <t>Should not Accept and Display error message "Last name allow only 4 to 40 characters range"</t>
+  </si>
+  <si>
+    <t>Verify entry Lastname along with spaces</t>
+  </si>
+  <si>
+    <t>Verify Lastname entry by copying more 
+that 40 Characters</t>
+  </si>
+  <si>
+    <t>Tc009_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verifying Lastname textbox entry with blank data</t>
+  </si>
+  <si>
+    <t>Leave Lastname field as empty and try to create account</t>
+  </si>
+  <si>
+    <t>Tc010_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verifying email textbox entrywith valid data</t>
+  </si>
+  <si>
+    <t>Verifying email with valid range min3with alphabet characters</t>
+  </si>
+  <si>
+    <t>Should accept email and allow user to fill other registration data</t>
+  </si>
+  <si>
+    <t>Verifying email with valid range min3with alphabet+Numeric characters</t>
+  </si>
+  <si>
+    <t>ab1</t>
+  </si>
+  <si>
+    <t>Should accept email and allow user to fille other registration data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verifying email with valid range min3with special characters  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[.@_$&amp;]</t>
+    </r>
+  </si>
+  <si>
+    <t>ab@
+ab.
+Ab_
+ab$
+ab&amp;</t>
+  </si>
+  <si>
+    <t>Verifying email with valid range max 100 characters</t>
+  </si>
+  <si>
+    <t>Verifying email with valid range max100 with alphabet+Numeric characters</t>
+  </si>
+  <si>
+    <t>Step8</t>
+  </si>
+  <si>
+    <t>Verifying email with valid range max100 with special characters  [.@_$&amp;]</t>
+  </si>
+  <si>
+    <t>Step9</t>
+  </si>
+  <si>
+    <t>Verify email entry with only numeric characters with in valid range 3-100</t>
+  </si>
+  <si>
+    <t>should accept email with numeic characters</t>
+  </si>
+  <si>
+    <t>Step10</t>
+  </si>
+  <si>
+    <t>Verify emal entry with combination characters Alphabets+numerics+Some special characters</t>
+  </si>
+  <si>
+    <t>suresh.abc
+suresh_abc
+suresh$abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +458,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.35"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9.35"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +529,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -211,15 +591,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -233,21 +639,94 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,120 +1029,1814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" customWidth="1"/>
+    <col min="7" max="7" width="41.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="32">
+        <v>1234</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="32">
+        <v>1234</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.35">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="34">
+        <v>9030248855</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="33"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -672,15 +2845,41 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F10" r:id="rId2" display="http://outlook.com"/>
+    <hyperlink ref="F15" r:id="rId3"/>
+    <hyperlink ref="C22" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
+    <hyperlink ref="C30" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
+    <hyperlink ref="C32" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
+    <hyperlink ref="C37" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
+    <hyperlink ref="C44" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
+    <hyperlink ref="F46" r:id="rId4"/>
+    <hyperlink ref="F50" r:id="rId5"/>
+    <hyperlink ref="F32" location="Sheet2!A2" display="Raju"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -692,62 +2891,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase_Practice.xlsx
+++ b/TestCase_Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="152">
   <si>
     <t>UseCaseName</t>
   </si>
@@ -436,6 +436,78 @@
     <t>suresh.abc
 suresh_abc
 suresh$abc</t>
+  </si>
+  <si>
+    <t>Tc011_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verifying email textbox with vaild domain address</t>
+  </si>
+  <si>
+    <t>Enter email with valid domain like hotmail.com</t>
+  </si>
+  <si>
+    <t>info@hotmail.com</t>
+  </si>
+  <si>
+    <t>System should accept and allow user to create registration with hotmail domain address</t>
+  </si>
+  <si>
+    <t>enter email with valid domain like outlook.com</t>
+  </si>
+  <si>
+    <t>info@outlook.com</t>
+  </si>
+  <si>
+    <t>System should accept and allow user to create registration with outlook domain address</t>
+  </si>
+  <si>
+    <t>Tc012_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Tc013_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Make sure user available at registration page</t>
+  </si>
+  <si>
+    <t>Enter valid username</t>
+  </si>
+  <si>
+    <t>User enter valid username at email editbox</t>
+  </si>
+  <si>
+    <t>User enter valid username and email editbox</t>
+  </si>
+  <si>
+    <t>Check default character @ dispalyed at domain entry box.</t>
+  </si>
+  <si>
+    <t>Verify default symbol displayed at domain</t>
+  </si>
+  <si>
+    <t>Verifying email textbox entrywith Invalid characters</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Tc014_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>should not allow and display error message "Username 3 to 100 characters range"</t>
+  </si>
+  <si>
+    <t>Verifying email with invalid range min2  characters,Numbers,special characters like (.@_$&amp;)</t>
+  </si>
+  <si>
+    <t>Veifying email with more than 100 characters,Numbers,special characters like (.@_$&amp;)</t>
+  </si>
+  <si>
+    <t>Verify email with invalid characters other than (.@_$&amp;)</t>
+  </si>
+  <si>
+    <t>should not allow some of special characters</t>
   </si>
 </sst>
 </file>
@@ -624,7 +696,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,21 +716,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -723,6 +780,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1029,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:XFD128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,10 +1130,10 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1065,10 +1145,10 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1080,10 +1160,10 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1095,8 +1175,8 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1148,1627 +1228,2181 @@
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="25" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="25" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="27">
         <v>1234</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="20" t="s">
         <v>62</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="20" t="s">
         <v>66</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="20" t="s">
         <v>103</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="20" t="s">
         <v>103</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="27">
         <v>1234</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="20" t="s">
         <v>79</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="20" t="s">
         <v>79</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="20" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="20" t="s">
         <v>90</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="20" t="s">
         <v>94</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="20" t="s">
         <v>46</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="20" t="s">
         <v>112</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25" t="s">
+    <row r="49" spans="1:9 16231:16384" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="20" t="s">
         <v>115</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.35">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25" t="s">
+    <row r="50" spans="1:9 16231:16384" ht="63" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="20" t="s">
         <v>115</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25" t="s">
+    <row r="51" spans="1:9 16231:16384" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="20" t="s">
         <v>112</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="33" t="s">
+    <row r="52" spans="1:9 16231:16384" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="28" t="s">
         <v>115</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="33" t="s">
+    <row r="53" spans="1:9 16231:16384" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="28" t="s">
         <v>115</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="33" t="s">
+    <row r="54" spans="1:9 16231:16384" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="29">
         <v>9030248855</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="28" t="s">
         <v>124</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="33" t="s">
+    <row r="55" spans="1:9 16231:16384" ht="58" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="33"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+    <row r="56" spans="1:9 16231:16384" x14ac:dyDescent="0.35">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+    </row>
+    <row r="57" spans="1:9 16231:16384" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="20"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+    <row r="58" spans="1:9 16231:16384" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+    <row r="59" spans="1:9 16231:16384" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="WZG59" s="16"/>
+      <c r="WZH59" s="16"/>
+      <c r="WZI59" s="16"/>
+      <c r="WZJ59" s="16"/>
+      <c r="WZK59" s="16"/>
+      <c r="WZL59" s="16"/>
+      <c r="WZM59" s="16"/>
+      <c r="WZN59" s="16"/>
+      <c r="WZO59" s="16"/>
+      <c r="WZP59" s="16"/>
+      <c r="WZQ59" s="16"/>
+      <c r="WZR59" s="16"/>
+      <c r="WZS59" s="16"/>
+      <c r="WZT59" s="16"/>
+      <c r="WZU59" s="16"/>
+      <c r="WZV59" s="16"/>
+      <c r="WZW59" s="16"/>
+      <c r="WZX59" s="16"/>
+      <c r="WZY59" s="16"/>
+      <c r="WZZ59" s="16"/>
+      <c r="XAA59" s="16"/>
+      <c r="XAB59" s="16"/>
+      <c r="XAC59" s="16"/>
+      <c r="XAD59" s="16"/>
+      <c r="XAE59" s="16"/>
+      <c r="XAF59" s="16"/>
+      <c r="XAG59" s="16"/>
+      <c r="XAH59" s="16"/>
+      <c r="XAI59" s="16"/>
+      <c r="XAJ59" s="16"/>
+      <c r="XAK59" s="16"/>
+      <c r="XAL59" s="16"/>
+      <c r="XAM59" s="16"/>
+      <c r="XAN59" s="16"/>
+      <c r="XAO59" s="16"/>
+      <c r="XAP59" s="16"/>
+      <c r="XAQ59" s="16"/>
+      <c r="XAR59" s="16"/>
+      <c r="XAS59" s="16"/>
+      <c r="XAT59" s="16"/>
+      <c r="XAU59" s="16"/>
+      <c r="XAV59" s="16"/>
+      <c r="XAW59" s="16"/>
+      <c r="XAX59" s="16"/>
+      <c r="XAY59" s="16"/>
+      <c r="XAZ59" s="16"/>
+      <c r="XBA59" s="16"/>
+      <c r="XBB59" s="16"/>
+      <c r="XBC59" s="16"/>
+      <c r="XBD59" s="16"/>
+      <c r="XBE59" s="16"/>
+      <c r="XBF59" s="16"/>
+      <c r="XBG59" s="16"/>
+      <c r="XBH59" s="16"/>
+      <c r="XBI59" s="16"/>
+      <c r="XBJ59" s="16"/>
+      <c r="XBK59" s="16"/>
+      <c r="XBL59" s="16"/>
+      <c r="XBM59" s="16"/>
+      <c r="XBN59" s="16"/>
+      <c r="XBO59" s="16"/>
+      <c r="XBP59" s="16"/>
+      <c r="XBQ59" s="16"/>
+      <c r="XBR59" s="16"/>
+      <c r="XBS59" s="16"/>
+      <c r="XBT59" s="16"/>
+      <c r="XBU59" s="16"/>
+      <c r="XBV59" s="16"/>
+      <c r="XBW59" s="16"/>
+      <c r="XBX59" s="16"/>
+      <c r="XBY59" s="16"/>
+      <c r="XBZ59" s="16"/>
+      <c r="XCA59" s="16"/>
+      <c r="XCB59" s="16"/>
+      <c r="XCC59" s="16"/>
+      <c r="XCD59" s="16"/>
+      <c r="XCE59" s="16"/>
+      <c r="XCF59" s="16"/>
+      <c r="XCG59" s="16"/>
+      <c r="XCH59" s="16"/>
+      <c r="XCI59" s="16"/>
+      <c r="XCJ59" s="16"/>
+      <c r="XCK59" s="16"/>
+      <c r="XCL59" s="16"/>
+      <c r="XCM59" s="16"/>
+      <c r="XCN59" s="16"/>
+      <c r="XCO59" s="16"/>
+      <c r="XCP59" s="16"/>
+      <c r="XCQ59" s="16"/>
+      <c r="XCR59" s="16"/>
+      <c r="XCS59" s="16"/>
+      <c r="XCT59" s="16"/>
+      <c r="XCU59" s="16"/>
+      <c r="XCV59" s="16"/>
+      <c r="XCW59" s="16"/>
+      <c r="XCX59" s="16"/>
+      <c r="XCY59" s="16"/>
+      <c r="XCZ59" s="16"/>
+      <c r="XDA59" s="16"/>
+      <c r="XDB59" s="16"/>
+      <c r="XDC59" s="16"/>
+      <c r="XDD59" s="16"/>
+      <c r="XDE59" s="16"/>
+      <c r="XDF59" s="16"/>
+      <c r="XDG59" s="16"/>
+      <c r="XDH59" s="16"/>
+      <c r="XDI59" s="16"/>
+      <c r="XDJ59" s="16"/>
+      <c r="XDK59" s="16"/>
+      <c r="XDL59" s="16"/>
+      <c r="XDM59" s="16"/>
+      <c r="XDN59" s="16"/>
+      <c r="XDO59" s="16"/>
+      <c r="XDP59" s="16"/>
+      <c r="XDQ59" s="16"/>
+      <c r="XDR59" s="16"/>
+      <c r="XDS59" s="16"/>
+      <c r="XDT59" s="16"/>
+      <c r="XDU59" s="16"/>
+      <c r="XDV59" s="16"/>
+      <c r="XDW59" s="16"/>
+      <c r="XDX59" s="16"/>
+      <c r="XDY59" s="16"/>
+      <c r="XDZ59" s="16"/>
+      <c r="XEA59" s="16"/>
+      <c r="XEB59" s="16"/>
+      <c r="XEC59" s="16"/>
+      <c r="XED59" s="16"/>
+      <c r="XEE59" s="16"/>
+      <c r="XEF59" s="16"/>
+      <c r="XEG59" s="16"/>
+      <c r="XEH59" s="16"/>
+      <c r="XEI59" s="16"/>
+      <c r="XEJ59" s="16"/>
+      <c r="XEK59" s="16"/>
+      <c r="XEL59" s="16"/>
+      <c r="XEM59" s="16"/>
+      <c r="XEN59" s="16"/>
+      <c r="XEO59" s="16"/>
+      <c r="XEP59" s="16"/>
+      <c r="XEQ59" s="16"/>
+      <c r="XER59" s="16"/>
+      <c r="XES59" s="16"/>
+      <c r="XET59" s="16"/>
+      <c r="XEU59" s="16"/>
+      <c r="XEV59" s="16"/>
+      <c r="XEW59" s="16"/>
+      <c r="XEX59" s="16"/>
+      <c r="XEY59" s="16"/>
+      <c r="XEZ59" s="16"/>
+      <c r="XFA59" s="16"/>
+      <c r="XFB59" s="16"/>
+      <c r="XFC59" s="16"/>
+      <c r="XFD59" s="16"/>
+    </row>
+    <row r="60" spans="1:9 16231:16384" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="WZG60" s="16"/>
+      <c r="WZH60" s="16"/>
+      <c r="WZI60" s="16"/>
+      <c r="WZJ60" s="16"/>
+      <c r="WZK60" s="16"/>
+      <c r="WZL60" s="16"/>
+      <c r="WZM60" s="16"/>
+      <c r="WZN60" s="16"/>
+      <c r="WZO60" s="16"/>
+      <c r="WZP60" s="16"/>
+      <c r="WZQ60" s="16"/>
+      <c r="WZR60" s="16"/>
+      <c r="WZS60" s="16"/>
+      <c r="WZT60" s="16"/>
+      <c r="WZU60" s="16"/>
+      <c r="WZV60" s="16"/>
+      <c r="WZW60" s="16"/>
+      <c r="WZX60" s="16"/>
+      <c r="WZY60" s="16"/>
+      <c r="WZZ60" s="16"/>
+      <c r="XAA60" s="16"/>
+      <c r="XAB60" s="16"/>
+      <c r="XAC60" s="16"/>
+      <c r="XAD60" s="16"/>
+      <c r="XAE60" s="16"/>
+      <c r="XAF60" s="16"/>
+      <c r="XAG60" s="16"/>
+      <c r="XAH60" s="16"/>
+      <c r="XAI60" s="16"/>
+      <c r="XAJ60" s="16"/>
+      <c r="XAK60" s="16"/>
+      <c r="XAL60" s="16"/>
+      <c r="XAM60" s="16"/>
+      <c r="XAN60" s="16"/>
+      <c r="XAO60" s="16"/>
+      <c r="XAP60" s="16"/>
+      <c r="XAQ60" s="16"/>
+      <c r="XAR60" s="16"/>
+      <c r="XAS60" s="16"/>
+      <c r="XAT60" s="16"/>
+      <c r="XAU60" s="16"/>
+      <c r="XAV60" s="16"/>
+      <c r="XAW60" s="16"/>
+      <c r="XAX60" s="16"/>
+      <c r="XAY60" s="16"/>
+      <c r="XAZ60" s="16"/>
+      <c r="XBA60" s="16"/>
+      <c r="XBB60" s="16"/>
+      <c r="XBC60" s="16"/>
+      <c r="XBD60" s="16"/>
+      <c r="XBE60" s="16"/>
+      <c r="XBF60" s="16"/>
+      <c r="XBG60" s="16"/>
+      <c r="XBH60" s="16"/>
+      <c r="XBI60" s="16"/>
+      <c r="XBJ60" s="16"/>
+      <c r="XBK60" s="16"/>
+      <c r="XBL60" s="16"/>
+      <c r="XBM60" s="16"/>
+      <c r="XBN60" s="16"/>
+      <c r="XBO60" s="16"/>
+      <c r="XBP60" s="16"/>
+      <c r="XBQ60" s="16"/>
+      <c r="XBR60" s="16"/>
+      <c r="XBS60" s="16"/>
+      <c r="XBT60" s="16"/>
+      <c r="XBU60" s="16"/>
+      <c r="XBV60" s="16"/>
+      <c r="XBW60" s="16"/>
+      <c r="XBX60" s="16"/>
+      <c r="XBY60" s="16"/>
+      <c r="XBZ60" s="16"/>
+      <c r="XCA60" s="16"/>
+      <c r="XCB60" s="16"/>
+      <c r="XCC60" s="16"/>
+      <c r="XCD60" s="16"/>
+      <c r="XCE60" s="16"/>
+      <c r="XCF60" s="16"/>
+      <c r="XCG60" s="16"/>
+      <c r="XCH60" s="16"/>
+      <c r="XCI60" s="16"/>
+      <c r="XCJ60" s="16"/>
+      <c r="XCK60" s="16"/>
+      <c r="XCL60" s="16"/>
+      <c r="XCM60" s="16"/>
+      <c r="XCN60" s="16"/>
+      <c r="XCO60" s="16"/>
+      <c r="XCP60" s="16"/>
+      <c r="XCQ60" s="16"/>
+      <c r="XCR60" s="16"/>
+      <c r="XCS60" s="16"/>
+      <c r="XCT60" s="16"/>
+      <c r="XCU60" s="16"/>
+      <c r="XCV60" s="16"/>
+      <c r="XCW60" s="16"/>
+      <c r="XCX60" s="16"/>
+      <c r="XCY60" s="16"/>
+      <c r="XCZ60" s="16"/>
+      <c r="XDA60" s="16"/>
+      <c r="XDB60" s="16"/>
+      <c r="XDC60" s="16"/>
+      <c r="XDD60" s="16"/>
+      <c r="XDE60" s="16"/>
+      <c r="XDF60" s="16"/>
+      <c r="XDG60" s="16"/>
+      <c r="XDH60" s="16"/>
+      <c r="XDI60" s="16"/>
+      <c r="XDJ60" s="16"/>
+      <c r="XDK60" s="16"/>
+      <c r="XDL60" s="16"/>
+      <c r="XDM60" s="16"/>
+      <c r="XDN60" s="16"/>
+      <c r="XDO60" s="16"/>
+      <c r="XDP60" s="16"/>
+      <c r="XDQ60" s="16"/>
+      <c r="XDR60" s="16"/>
+      <c r="XDS60" s="16"/>
+      <c r="XDT60" s="16"/>
+      <c r="XDU60" s="16"/>
+      <c r="XDV60" s="16"/>
+      <c r="XDW60" s="16"/>
+      <c r="XDX60" s="16"/>
+      <c r="XDY60" s="16"/>
+      <c r="XDZ60" s="16"/>
+      <c r="XEA60" s="16"/>
+      <c r="XEB60" s="16"/>
+      <c r="XEC60" s="16"/>
+      <c r="XED60" s="16"/>
+      <c r="XEE60" s="16"/>
+      <c r="XEF60" s="16"/>
+      <c r="XEG60" s="16"/>
+      <c r="XEH60" s="16"/>
+      <c r="XEI60" s="16"/>
+      <c r="XEJ60" s="16"/>
+      <c r="XEK60" s="16"/>
+      <c r="XEL60" s="16"/>
+      <c r="XEM60" s="16"/>
+      <c r="XEN60" s="16"/>
+      <c r="XEO60" s="16"/>
+      <c r="XEP60" s="16"/>
+      <c r="XEQ60" s="16"/>
+      <c r="XER60" s="16"/>
+      <c r="XES60" s="16"/>
+      <c r="XET60" s="16"/>
+      <c r="XEU60" s="16"/>
+      <c r="XEV60" s="16"/>
+      <c r="XEW60" s="16"/>
+      <c r="XEX60" s="16"/>
+      <c r="XEY60" s="16"/>
+      <c r="XEZ60" s="16"/>
+      <c r="XFA60" s="16"/>
+      <c r="XFB60" s="16"/>
+      <c r="XFC60" s="16"/>
+      <c r="XFD60" s="16"/>
+    </row>
+    <row r="61" spans="1:9 16231:16384" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="WZG61" s="16"/>
+      <c r="WZH61" s="16"/>
+      <c r="WZI61" s="16"/>
+      <c r="WZJ61" s="16"/>
+      <c r="WZK61" s="16"/>
+      <c r="WZL61" s="16"/>
+      <c r="WZM61" s="16"/>
+      <c r="WZN61" s="16"/>
+      <c r="WZO61" s="16"/>
+      <c r="WZP61" s="16"/>
+      <c r="WZQ61" s="16"/>
+      <c r="WZR61" s="16"/>
+      <c r="WZS61" s="16"/>
+      <c r="WZT61" s="16"/>
+      <c r="WZU61" s="16"/>
+      <c r="WZV61" s="16"/>
+      <c r="WZW61" s="16"/>
+      <c r="WZX61" s="16"/>
+      <c r="WZY61" s="16"/>
+      <c r="WZZ61" s="16"/>
+      <c r="XAA61" s="16"/>
+      <c r="XAB61" s="16"/>
+      <c r="XAC61" s="16"/>
+      <c r="XAD61" s="16"/>
+      <c r="XAE61" s="16"/>
+      <c r="XAF61" s="16"/>
+      <c r="XAG61" s="16"/>
+      <c r="XAH61" s="16"/>
+      <c r="XAI61" s="16"/>
+      <c r="XAJ61" s="16"/>
+      <c r="XAK61" s="16"/>
+      <c r="XAL61" s="16"/>
+      <c r="XAM61" s="16"/>
+      <c r="XAN61" s="16"/>
+      <c r="XAO61" s="16"/>
+      <c r="XAP61" s="16"/>
+      <c r="XAQ61" s="16"/>
+      <c r="XAR61" s="16"/>
+      <c r="XAS61" s="16"/>
+      <c r="XAT61" s="16"/>
+      <c r="XAU61" s="16"/>
+      <c r="XAV61" s="16"/>
+      <c r="XAW61" s="16"/>
+      <c r="XAX61" s="16"/>
+      <c r="XAY61" s="16"/>
+      <c r="XAZ61" s="16"/>
+      <c r="XBA61" s="16"/>
+      <c r="XBB61" s="16"/>
+      <c r="XBC61" s="16"/>
+      <c r="XBD61" s="16"/>
+      <c r="XBE61" s="16"/>
+      <c r="XBF61" s="16"/>
+      <c r="XBG61" s="16"/>
+      <c r="XBH61" s="16"/>
+      <c r="XBI61" s="16"/>
+      <c r="XBJ61" s="16"/>
+      <c r="XBK61" s="16"/>
+      <c r="XBL61" s="16"/>
+      <c r="XBM61" s="16"/>
+      <c r="XBN61" s="16"/>
+      <c r="XBO61" s="16"/>
+      <c r="XBP61" s="16"/>
+      <c r="XBQ61" s="16"/>
+      <c r="XBR61" s="16"/>
+      <c r="XBS61" s="16"/>
+      <c r="XBT61" s="16"/>
+      <c r="XBU61" s="16"/>
+      <c r="XBV61" s="16"/>
+      <c r="XBW61" s="16"/>
+      <c r="XBX61" s="16"/>
+      <c r="XBY61" s="16"/>
+      <c r="XBZ61" s="16"/>
+      <c r="XCA61" s="16"/>
+      <c r="XCB61" s="16"/>
+      <c r="XCC61" s="16"/>
+      <c r="XCD61" s="16"/>
+      <c r="XCE61" s="16"/>
+      <c r="XCF61" s="16"/>
+      <c r="XCG61" s="16"/>
+      <c r="XCH61" s="16"/>
+      <c r="XCI61" s="16"/>
+      <c r="XCJ61" s="16"/>
+      <c r="XCK61" s="16"/>
+      <c r="XCL61" s="16"/>
+      <c r="XCM61" s="16"/>
+      <c r="XCN61" s="16"/>
+      <c r="XCO61" s="16"/>
+      <c r="XCP61" s="16"/>
+      <c r="XCQ61" s="16"/>
+      <c r="XCR61" s="16"/>
+      <c r="XCS61" s="16"/>
+      <c r="XCT61" s="16"/>
+      <c r="XCU61" s="16"/>
+      <c r="XCV61" s="16"/>
+      <c r="XCW61" s="16"/>
+      <c r="XCX61" s="16"/>
+      <c r="XCY61" s="16"/>
+      <c r="XCZ61" s="16"/>
+      <c r="XDA61" s="16"/>
+      <c r="XDB61" s="16"/>
+      <c r="XDC61" s="16"/>
+      <c r="XDD61" s="16"/>
+      <c r="XDE61" s="16"/>
+      <c r="XDF61" s="16"/>
+      <c r="XDG61" s="16"/>
+      <c r="XDH61" s="16"/>
+      <c r="XDI61" s="16"/>
+      <c r="XDJ61" s="16"/>
+      <c r="XDK61" s="16"/>
+      <c r="XDL61" s="16"/>
+      <c r="XDM61" s="16"/>
+      <c r="XDN61" s="16"/>
+      <c r="XDO61" s="16"/>
+      <c r="XDP61" s="16"/>
+      <c r="XDQ61" s="16"/>
+      <c r="XDR61" s="16"/>
+      <c r="XDS61" s="16"/>
+      <c r="XDT61" s="16"/>
+      <c r="XDU61" s="16"/>
+      <c r="XDV61" s="16"/>
+      <c r="XDW61" s="16"/>
+      <c r="XDX61" s="16"/>
+      <c r="XDY61" s="16"/>
+      <c r="XDZ61" s="16"/>
+      <c r="XEA61" s="16"/>
+      <c r="XEB61" s="16"/>
+      <c r="XEC61" s="16"/>
+      <c r="XED61" s="16"/>
+      <c r="XEE61" s="16"/>
+      <c r="XEF61" s="16"/>
+      <c r="XEG61" s="16"/>
+      <c r="XEH61" s="16"/>
+      <c r="XEI61" s="16"/>
+      <c r="XEJ61" s="16"/>
+      <c r="XEK61" s="16"/>
+      <c r="XEL61" s="16"/>
+      <c r="XEM61" s="16"/>
+      <c r="XEN61" s="16"/>
+      <c r="XEO61" s="16"/>
+      <c r="XEP61" s="16"/>
+      <c r="XEQ61" s="16"/>
+      <c r="XER61" s="16"/>
+      <c r="XES61" s="16"/>
+      <c r="XET61" s="16"/>
+      <c r="XEU61" s="16"/>
+      <c r="XEV61" s="16"/>
+      <c r="XEW61" s="16"/>
+      <c r="XEX61" s="16"/>
+      <c r="XEY61" s="16"/>
+      <c r="XEZ61" s="16"/>
+      <c r="XFA61" s="16"/>
+      <c r="XFB61" s="16"/>
+      <c r="XFC61" s="16"/>
+      <c r="XFD61" s="16"/>
+    </row>
+    <row r="62" spans="1:9 16231:16384" x14ac:dyDescent="0.35">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+    <row r="63" spans="1:9 16231:16384" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+    <row r="64" spans="1:9 16231:16384" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+    <row r="66" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="21"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="21"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+    <row r="68" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+    <row r="69" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+    <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
     </row>
@@ -2837,6 +3471,28 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2857,9 +3513,14 @@
     <hyperlink ref="F46" r:id="rId4"/>
     <hyperlink ref="F50" r:id="rId5"/>
     <hyperlink ref="F32" location="Sheet2!A2" display="Raju"/>
+    <hyperlink ref="F57" r:id="rId6"/>
+    <hyperlink ref="F61" r:id="rId7"/>
+    <hyperlink ref="F58" r:id="rId8"/>
+    <hyperlink ref="F60" r:id="rId9"/>
+    <hyperlink ref="F66" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
